--- a/Planning/Planning_2_5_9_5.xlsx
+++ b/Planning/Planning_2_5_9_5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09EAC97-62CE-44A3-BD20-11945BDD7E9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177DF9BA-B7F3-4EA7-8E76-F139778F1513}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,7 +379,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Planning/Planning_2_5_9_5.xlsx
+++ b/Planning/Planning_2_5_9_5.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177DF9BA-B7F3-4EA7-8E76-F139778F1513}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D25C7D-917D-46A6-914C-22233B048DC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Task</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>Tischler, Trinkl</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>1h</t>
   </si>
 </sst>
 </file>
@@ -379,7 +388,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,6 +424,12 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
@@ -425,6 +440,12 @@
       </c>
       <c r="B3" t="s">
         <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>

--- a/Planning/Planning_2_5_9_5.xlsx
+++ b/Planning/Planning_2_5_9_5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D25C7D-917D-46A6-914C-22233B048DC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98945586-CA2E-41A0-A19D-77D9924C44D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Task</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>1h</t>
+  </si>
+  <si>
+    <t>Coin Flip against User</t>
   </si>
 </sst>
 </file>
@@ -385,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,10 +428,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -458,8 +461,28 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Planning/Planning_2_5_9_5.xlsx
+++ b/Planning/Planning_2_5_9_5.xlsx
@@ -3,24 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98945586-CA2E-41A0-A19D-77D9924C44D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B79096-82C9-480B-A697-40C88A6D807C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Task</t>
   </si>
@@ -40,9 +45,6 @@
     <t>Responsible</t>
   </si>
   <si>
-    <t>3h</t>
-  </si>
-  <si>
     <t>White/Blacklist Implementation</t>
   </si>
   <si>
@@ -59,15 +61,6 @@
   </si>
   <si>
     <t>Tischler, Trinkl</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>1h</t>
   </si>
   <si>
     <t>Coin Flip against User</t>
@@ -391,7 +384,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,67 +415,86 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f>C2-D2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">C3-D3</f>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
